--- a/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Address.xlsx
+++ b/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Address.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DAECD6-9520-463E-B1EC-47C10EAF7A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB4557-1577-40F5-855C-3B468E61B46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>company_code</t>
   </si>
@@ -66,18 +66,6 @@
     <t>address_zipcode</t>
   </si>
   <si>
-    <t>address_tel</t>
-  </si>
-  <si>
-    <t>address_email</t>
-  </si>
-  <si>
-    <t>address_line</t>
-  </si>
-  <si>
-    <t>address_facebook</t>
-  </si>
-  <si>
     <t>รหัสบริษัท</t>
   </si>
   <si>
@@ -109,18 +97,6 @@
   </si>
   <si>
     <t>รหัสไปรษณีย์</t>
-  </si>
-  <si>
-    <t>เบอร์โทรฯ</t>
-  </si>
-  <si>
-    <t>อีเมล์</t>
-  </si>
-  <si>
-    <t>ไลน์</t>
-  </si>
-  <si>
-    <t>เฟสบุ๊ค</t>
   </si>
   <si>
     <t>IMP1</t>
@@ -193,26 +169,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -240,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,9 +248,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +283,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,26 +318,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -578,65 +512,52 @@
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" customWidth="1"/>
-    <col min="17" max="17" width="17.77734375" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="20" max="20" width="22.109375" customWidth="1"/>
-    <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -650,28 +571,23 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="6">
+        <v>28</v>
+      </c>
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <v>44963</v>
       </c>
-      <c r="L2" s="6">
-        <v>992123122</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -682,10 +598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,142 +617,109 @@
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="J3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
-        <v>100</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="9">
-        <v>3</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="K3" s="5">
         <v>44963</v>
       </c>
-      <c r="L3" s="9">
-        <v>992123122</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
